--- a/EGR102-Intro-to-Computing/sandyboi.xlsx
+++ b/EGR102-Intro-to-Computing/sandyboi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Coursework\EGR102-Intro-to-Computing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF1E42E-90B0-418B-BE5B-9822843074A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74189C3-5AA2-444D-9DC2-49D5938D98B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="15795" windowHeight="10080" xr2:uid="{08AFA929-FCDF-4AFE-AD37-13FBB97AD61D}"/>
+    <workbookView xWindow="4515" yWindow="2520" windowWidth="15795" windowHeight="10080" xr2:uid="{08AFA929-FCDF-4AFE-AD37-13FBB97AD61D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,112 +387,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>4.0664711632453567</v>
+        <v>4.1055718475073313</v>
       </c>
       <c r="B1">
-        <v>4.0566959921798631</v>
+        <v>4.0811339198435972</v>
       </c>
       <c r="C1">
-        <v>4.0615835777126099</v>
+        <v>4.0987292277614857</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.0664711632453567</v>
+        <v>4.1006842619745845</v>
       </c>
       <c r="B2">
-        <v>4.0566959921798631</v>
+        <v>4.0909090909090908</v>
       </c>
       <c r="C2">
-        <v>4.0615835777126108</v>
+        <v>4.0977517106549364</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4.0566959921798631</v>
+        <v>4.1006842619745845</v>
       </c>
       <c r="B3">
-        <v>4.0371456500488758</v>
+        <v>4.086021505376344</v>
       </c>
       <c r="C3">
-        <v>4.0478983382209197</v>
+        <v>4.0948191593352892</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.0273704789833822</v>
+        <v>4.1006842619745845</v>
       </c>
       <c r="B4">
-        <v>3.9980449657869013</v>
+        <v>4.0957966764418376</v>
       </c>
       <c r="C4">
-        <v>4.0097751710654936</v>
+        <v>4.0977517106549364</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3.9931573802541545</v>
+        <v>4.1055718475073313</v>
       </c>
       <c r="B5">
-        <v>3.9882697947214076</v>
+        <v>4.1006842619745845</v>
       </c>
       <c r="C5">
-        <v>3.989247311827957</v>
+        <v>4.1026392961876841</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3.9882697947214076</v>
+        <v>4.1055718475073313</v>
       </c>
       <c r="B6">
-        <v>3.9882697947214076</v>
+        <v>4.1006842619745845</v>
       </c>
       <c r="C6">
-        <v>3.9882697947214076</v>
+        <v>4.1045943304007819</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3.9882697947214076</v>
+        <v>4.1104594330400781</v>
       </c>
       <c r="B7">
-        <v>3.9833822091886608</v>
+        <v>4.1055718475073313</v>
       </c>
       <c r="C7">
-        <v>3.9872922776148583</v>
+        <v>4.10752688172043</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3.9882697947214076</v>
+        <v>4.1104594330400781</v>
       </c>
       <c r="B8">
-        <v>3.9833822091886608</v>
+        <v>4.1104594330400781</v>
       </c>
       <c r="C8">
-        <v>3.9863147605083094</v>
+        <v>4.1104594330400781</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3.9882697947214076</v>
+        <v>4.1153470185728249</v>
       </c>
       <c r="B9">
-        <v>3.9882697947214076</v>
+        <v>4.1104594330400781</v>
       </c>
       <c r="C9">
-        <v>3.9882697947214076</v>
+        <v>4.1124144672531768</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3.9882697947214076</v>
+        <v>4.1153470185728249</v>
       </c>
       <c r="B10">
-        <v>3.9833822091886608</v>
+        <v>4.1104594330400781</v>
       </c>
       <c r="C10">
-        <v>3.98533724340176</v>
+        <v>4.1133919843597271</v>
       </c>
     </row>
   </sheetData>
